--- a/lib/db/output_directory/Expenses.xlsx
+++ b/lib/db/output_directory/Expenses.xlsx
@@ -516,7 +516,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>There.</t>
+          <t>Sephora trip</t>
         </is>
       </c>
       <c r="B5" t="n">
